--- a/test.xlsx
+++ b/test.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\github\xlsx2json\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="120" windowWidth="24615" windowHeight="11520"/>
+    <workbookView xWindow="4440" yWindow="240" windowWidth="24615" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="buff" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -89,23 +84,39 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">true,true,false,true </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">false,false,true,false </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>地图是否开启</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data#{}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:123;b:45</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">true,true  </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">false,false  </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a:11;b:22   </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象数据</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,24 +709,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -730,15 +741,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,7 +808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,10 +840,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -864,7 +874,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1040,27 +1049,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1077,10 +1083,13 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1099,8 +1108,11 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>123</v>
       </c>
@@ -1117,10 +1129,13 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>456</v>
       </c>
@@ -1137,7 +1152,10 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -108,7 +108,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>hero#[{}]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>对象数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象数组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:2;level:30,id:3;level:80</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:9;level:38,id:17;level:100</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1050,23 +1066,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1086,10 +1103,13 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1111,8 +1131,11 @@
       <c r="G2" t="s">
         <v>18</v>
       </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>123</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>456</v>
       </c>
@@ -1156,6 +1182,9 @@
       </c>
       <c r="G4" t="s">
         <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
